--- a/创客论坛2015/2015创客日活动结算.xlsx
+++ b/创客论坛2015/2015创客日活动结算.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/创客论坛2015/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,34 +63,6 @@
   </si>
   <si>
     <t>活动现场视觉设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视觉设计产品制作（胶印场）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景板、指示牌、易拉宝（2个）、道旗、会议文件袋、胸卡、会议手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创客日活动办公家具购置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场音响与投影设备租用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间轴制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>演示沙盘制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷射枪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,6 +111,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,6 +144,238 @@
   </si>
   <si>
     <t>交通摆渡车租用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同已收到并办理转款（团队4人，12天，每天6小时工作量）</t>
+    <rPh sb="0" eb="1">
+      <t>he tong yi shou dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan kuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tuan dui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>mei tian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xiao shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创客日：99787，双创周：39845。共计：139632。舞台及屏幕租金、室外背景板、指示牌、易拉宝、道旗、会议文件袋、胸卡、会议手册</t>
+    <rPh sb="0" eb="1">
+      <t>chuang ke ri</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shuang chuang zhou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gog ji</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>wu tai</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ping mu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zu jin</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>shi wai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术中心</t>
+    <rPh sb="0" eb="1">
+      <t>xin xi ji shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示沙盘制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场音响设备租用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创客日活动办公家具购置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉设计产品制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华清美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间轴制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷射枪（张照雨），彩喷条：200（王德宇）</t>
+    <rPh sb="4" eb="5">
+      <t>zhang zhao yu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cai pen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wang de yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣键</t>
+    <rPh sb="0" eb="1">
+      <t>rong jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清控科创赞助</t>
+    <rPh sb="0" eb="1">
+      <t>qing kong ke chuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zan zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨兴华、荣键、王德宇</t>
+    <rPh sb="0" eb="1">
+      <t>yang ixng hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>rong jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wang de yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连晓刚</t>
+    <rPh sb="0" eb="1">
+      <t>lian xiao gang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色拱形支架及选调灯光装置</t>
+    <rPh sb="0" eb="1">
+      <t>hei se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan diao zhuang zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>deng guang zhuang zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D打印节点、支架、激光切割板材小房子、水培绿植</t>
+    <rPh sb="2" eb="3">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie dian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji guagn qie ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ban cai xiao fang zi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shui pei</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>lü zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标牌空白木板（陈凯）</t>
+    <rPh sb="0" eb="1">
+      <t>biao pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kong bai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mu ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chen kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开具人员劳务费</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kai ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren yuan lao wu fei</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,6 +421,7 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -244,11 +455,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -582,192 +793,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="5" max="5" width="89.5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>6929.8</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>6929.8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>28800</v>
+      </c>
+      <c r="E5">
+        <f>D5*C5</f>
+        <v>28800</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>139632</v>
+      </c>
+      <c r="E6">
+        <f>D6*C6</f>
+        <v>139632</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2400</v>
+      </c>
+      <c r="E8">
+        <f>D8*C8</f>
+        <v>2400</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>24200</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <f>D13*C13</f>
+        <v>500</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
         <v>1</v>
-      </c>
-      <c r="C16">
-        <v>800</v>
       </c>
       <c r="D16">
         <v>800</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16">
+        <v>800</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>